--- a/biology/Zoologie/Grotte_du_Chien_(Pouzzoles)/Grotte_du_Chien_(Pouzzoles).xlsx
+++ b/biology/Zoologie/Grotte_du_Chien_(Pouzzoles)/Grotte_du_Chien_(Pouzzoles).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La grotte du Chien (grotta del Cane) est située dans les champs Phlégréens près de Pouzzoles (région de Campanie, Italie), à proximité du lac d'Agnano. Elle est le siège d'émanations toxiques, dues à l'activité volcanique de la région.
 Son nom provient de la coutume d'utiliser un chien pour démontrer la présence de ces émanations. Les vapeurs toxiques, plus denses que l'air (le dioxyde de carbone, composé de carbone et d'oxygène, a une masse molaire de 44, soit près du double de celle de l'air), se trouvent à la surface du sol. Les malheureux chiens perdaient connaissance, et périssaient asphyxiés s'ils n'étaient pas rapidement ramenés à l'air libre. Aujourd'hui, on utilise une bougie allumée qui s'éteint immédiatement au sol.
